--- a/data_used.xlsx
+++ b/data_used.xlsx
@@ -265,9 +265,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -278,14 +278,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -300,17 +300,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,16 +331,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -356,17 +362,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,23 +394,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,8 +414,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,7 +431,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +485,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,25 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,115 +599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,9 +627,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,37 +669,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,17 +708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,148 +727,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,8 +1197,8 @@
   <sheetPr/>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G21" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -2629,7 +2629,7 @@
         <v>64</v>
       </c>
       <c r="M28">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N28" t="s">
         <v>29</v>

--- a/data_used.xlsx
+++ b/data_used.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$D$43</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -264,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -285,9 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +303,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -307,9 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,100 +417,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,7 +434,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +464,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +506,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,151 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,20 +630,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,21 +642,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,8 +664,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,16 +712,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,148 +730,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1276,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1285,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -1294,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -1303,17 +1306,17 @@
         <v>22</v>
       </c>
       <c r="M2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P2">
         <f>2*O2</f>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1327,7 +1330,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1336,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -1345,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -1354,17 +1357,17 @@
         <v>22</v>
       </c>
       <c r="M3">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P19" si="0">2*O3</f>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1378,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1387,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -1396,7 +1399,7 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
@@ -1405,17 +1408,17 @@
         <v>28</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1429,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1438,7 +1441,7 @@
         <v>31</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -1447,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -1456,17 +1459,17 @@
         <v>28</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1480,7 +1483,7 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1489,7 +1492,7 @@
         <v>31</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -1498,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
@@ -1507,17 +1510,17 @@
         <v>28</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1531,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
@@ -1540,7 +1543,7 @@
         <v>35</v>
       </c>
       <c r="G7">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -1549,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K7" t="s">
         <v>27</v>
@@ -1558,17 +1561,17 @@
         <v>28</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1582,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -1591,7 +1594,7 @@
         <v>35</v>
       </c>
       <c r="G8">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
@@ -1600,7 +1603,7 @@
         <v>31</v>
       </c>
       <c r="J8">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
@@ -1609,17 +1612,17 @@
         <v>28</v>
       </c>
       <c r="M8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="s">
         <v>23</v>
       </c>
       <c r="O8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1633,7 +1636,7 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -1642,7 +1645,7 @@
         <v>35</v>
       </c>
       <c r="G9">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
@@ -1651,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="J9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9" t="s">
         <v>27</v>
@@ -1660,17 +1663,17 @@
         <v>28</v>
       </c>
       <c r="M9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1684,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -1693,7 +1696,7 @@
         <v>35</v>
       </c>
       <c r="G10">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
@@ -1702,7 +1705,7 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K10" t="s">
         <v>30</v>
@@ -1711,17 +1714,17 @@
         <v>31</v>
       </c>
       <c r="M10">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N10" t="s">
         <v>29</v>
       </c>
       <c r="O10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1735,7 +1738,7 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
@@ -1744,7 +1747,7 @@
         <v>35</v>
       </c>
       <c r="G11">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
@@ -1753,7 +1756,7 @@
         <v>22</v>
       </c>
       <c r="J11">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
@@ -1762,17 +1765,17 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="s">
         <v>32</v>
       </c>
       <c r="O11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1786,7 +1789,7 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
@@ -1795,7 +1798,7 @@
         <v>35</v>
       </c>
       <c r="G12">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="H12" t="s">
         <v>37</v>
@@ -1804,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="J12">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -1813,17 +1816,17 @@
         <v>22</v>
       </c>
       <c r="M12">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N12" t="s">
         <v>33</v>
       </c>
       <c r="O12">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1837,7 +1840,7 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -1846,7 +1849,7 @@
         <v>35</v>
       </c>
       <c r="G13">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="H13" t="s">
         <v>37</v>
@@ -1855,7 +1858,7 @@
         <v>38</v>
       </c>
       <c r="J13">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K13" t="s">
         <v>39</v>
@@ -1864,17 +1867,17 @@
         <v>40</v>
       </c>
       <c r="M13">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
       </c>
       <c r="O13">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1888,7 +1891,7 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
@@ -1897,7 +1900,7 @@
         <v>35</v>
       </c>
       <c r="G14">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
@@ -1906,7 +1909,7 @@
         <v>38</v>
       </c>
       <c r="J14">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K14" t="s">
         <v>41</v>
@@ -1915,17 +1918,17 @@
         <v>42</v>
       </c>
       <c r="M14">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="N14" t="s">
         <v>23</v>
       </c>
       <c r="O14">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1939,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -1948,7 +1951,7 @@
         <v>35</v>
       </c>
       <c r="G15">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="H15" t="s">
         <v>37</v>
@@ -1957,7 +1960,7 @@
         <v>38</v>
       </c>
       <c r="J15">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -1966,17 +1969,17 @@
         <v>40</v>
       </c>
       <c r="M15">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
       </c>
       <c r="O15">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1990,7 +1993,7 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
@@ -1999,7 +2002,7 @@
         <v>35</v>
       </c>
       <c r="G16">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="H16" t="s">
         <v>37</v>
@@ -2008,7 +2011,7 @@
         <v>38</v>
       </c>
       <c r="J16">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K16" t="s">
         <v>41</v>
@@ -2017,17 +2020,17 @@
         <v>42</v>
       </c>
       <c r="M16">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="N16" t="s">
         <v>29</v>
       </c>
       <c r="O16">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2041,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
@@ -2050,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="G17">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H17" t="s">
         <v>39</v>
@@ -2059,7 +2062,7 @@
         <v>40</v>
       </c>
       <c r="J17">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K17" t="s">
         <v>41</v>
@@ -2068,17 +2071,17 @@
         <v>42</v>
       </c>
       <c r="M17">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="N17" t="s">
         <v>32</v>
       </c>
       <c r="O17">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2092,7 +2095,7 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -2101,7 +2104,7 @@
         <v>44</v>
       </c>
       <c r="G18">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H18" t="s">
         <v>39</v>
@@ -2110,7 +2113,7 @@
         <v>40</v>
       </c>
       <c r="J18">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K18" t="s">
         <v>41</v>
@@ -2119,17 +2122,17 @@
         <v>42</v>
       </c>
       <c r="M18">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="N18" t="s">
         <v>33</v>
       </c>
       <c r="O18">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2143,7 +2146,7 @@
         <v>46</v>
       </c>
       <c r="D19">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
@@ -2152,7 +2155,7 @@
         <v>48</v>
       </c>
       <c r="G19">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
@@ -2161,7 +2164,7 @@
         <v>44</v>
       </c>
       <c r="J19">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K19" t="s">
         <v>41</v>
@@ -2170,17 +2173,17 @@
         <v>42</v>
       </c>
       <c r="M19">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
       </c>
       <c r="O19">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2194,7 +2197,7 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -2203,7 +2206,7 @@
         <v>22</v>
       </c>
       <c r="G20">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -2212,7 +2215,7 @@
         <v>44</v>
       </c>
       <c r="J20">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" t="s">
         <v>41</v>
@@ -2221,17 +2224,17 @@
         <v>42</v>
       </c>
       <c r="M20">
-        <v>370</v>
+        <v>470</v>
       </c>
       <c r="N20" t="s">
         <v>23</v>
       </c>
       <c r="O20">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P20">
         <f t="shared" ref="P20:P43" si="1">2*O20</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2245,7 +2248,7 @@
         <v>50</v>
       </c>
       <c r="D21">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -2254,7 +2257,7 @@
         <v>52</v>
       </c>
       <c r="G21">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="H21" t="s">
         <v>53</v>
@@ -2263,7 +2266,7 @@
         <v>54</v>
       </c>
       <c r="J21">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="K21" t="s">
         <v>55</v>
@@ -2272,17 +2275,17 @@
         <v>56</v>
       </c>
       <c r="M21">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="N21" t="s">
         <v>26</v>
       </c>
       <c r="O21">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2296,7 +2299,7 @@
         <v>50</v>
       </c>
       <c r="D22">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" t="s">
         <v>57</v>
@@ -2305,7 +2308,7 @@
         <v>58</v>
       </c>
       <c r="G22">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H22" t="s">
         <v>53</v>
@@ -2314,7 +2317,7 @@
         <v>54</v>
       </c>
       <c r="J22">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="K22" t="s">
         <v>55</v>
@@ -2323,17 +2326,17 @@
         <v>56</v>
       </c>
       <c r="M22">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="N22" t="s">
         <v>29</v>
       </c>
       <c r="O22">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2347,7 +2350,7 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E23" t="s">
         <v>57</v>
@@ -2356,7 +2359,7 @@
         <v>58</v>
       </c>
       <c r="G23">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -2365,7 +2368,7 @@
         <v>54</v>
       </c>
       <c r="J23">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="K23" t="s">
         <v>51</v>
@@ -2374,17 +2377,17 @@
         <v>52</v>
       </c>
       <c r="M23">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="N23" t="s">
         <v>32</v>
       </c>
       <c r="O23">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2398,7 +2401,7 @@
         <v>50</v>
       </c>
       <c r="D24">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E24" t="s">
         <v>55</v>
@@ -2407,7 +2410,7 @@
         <v>56</v>
       </c>
       <c r="G24">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -2416,7 +2419,7 @@
         <v>60</v>
       </c>
       <c r="J24">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K24" t="s">
         <v>51</v>
@@ -2425,17 +2428,17 @@
         <v>52</v>
       </c>
       <c r="M24">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="N24" t="s">
         <v>33</v>
       </c>
       <c r="O24">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2449,7 +2452,7 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E25" t="s">
         <v>57</v>
@@ -2458,7 +2461,7 @@
         <v>58</v>
       </c>
       <c r="G25">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H25" t="s">
         <v>61</v>
@@ -2467,7 +2470,7 @@
         <v>62</v>
       </c>
       <c r="J25">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="K25" t="s">
         <v>55</v>
@@ -2476,17 +2479,17 @@
         <v>56</v>
       </c>
       <c r="M25">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
       </c>
       <c r="O25">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2500,7 +2503,7 @@
         <v>52</v>
       </c>
       <c r="D26">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="E26" t="s">
         <v>53</v>
@@ -2509,7 +2512,7 @@
         <v>54</v>
       </c>
       <c r="G26">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="H26" t="s">
         <v>55</v>
@@ -2518,7 +2521,7 @@
         <v>56</v>
       </c>
       <c r="J26">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="K26" t="s">
         <v>59</v>
@@ -2527,17 +2530,17 @@
         <v>60</v>
       </c>
       <c r="M26">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N26" t="s">
         <v>23</v>
       </c>
       <c r="O26">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2551,7 +2554,7 @@
         <v>58</v>
       </c>
       <c r="D27">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E27" t="s">
         <v>53</v>
@@ -2560,7 +2563,7 @@
         <v>54</v>
       </c>
       <c r="G27">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="H27" t="s">
         <v>55</v>
@@ -2569,7 +2572,7 @@
         <v>56</v>
       </c>
       <c r="J27">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="K27" t="s">
         <v>59</v>
@@ -2578,17 +2581,17 @@
         <v>60</v>
       </c>
       <c r="M27">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N27" t="s">
         <v>26</v>
       </c>
       <c r="O27">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2602,7 +2605,7 @@
         <v>60</v>
       </c>
       <c r="D28">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E28" t="s">
         <v>57</v>
@@ -2611,7 +2614,7 @@
         <v>58</v>
       </c>
       <c r="G28">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H28" t="s">
         <v>61</v>
@@ -2620,7 +2623,7 @@
         <v>62</v>
       </c>
       <c r="J28">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="K28" t="s">
         <v>63</v>
@@ -2629,17 +2632,17 @@
         <v>64</v>
       </c>
       <c r="M28">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N28" t="s">
         <v>29</v>
       </c>
       <c r="O28">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2653,7 +2656,7 @@
         <v>66</v>
       </c>
       <c r="D29">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="E29" t="s">
         <v>57</v>
@@ -2662,7 +2665,7 @@
         <v>58</v>
       </c>
       <c r="G29">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H29" t="s">
         <v>61</v>
@@ -2671,7 +2674,7 @@
         <v>62</v>
       </c>
       <c r="J29">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="K29" t="s">
         <v>63</v>
@@ -2680,17 +2683,17 @@
         <v>64</v>
       </c>
       <c r="M29">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N29" t="s">
         <v>32</v>
       </c>
       <c r="O29">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2704,7 +2707,7 @@
         <v>66</v>
       </c>
       <c r="D30">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="E30" t="s">
         <v>57</v>
@@ -2713,7 +2716,7 @@
         <v>58</v>
       </c>
       <c r="G30">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H30" t="s">
         <v>61</v>
@@ -2722,7 +2725,7 @@
         <v>62</v>
       </c>
       <c r="J30">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="K30" t="s">
         <v>67</v>
@@ -2731,17 +2734,17 @@
         <v>68</v>
       </c>
       <c r="M30">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="N30" t="s">
         <v>33</v>
       </c>
       <c r="O30">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2755,7 +2758,7 @@
         <v>66</v>
       </c>
       <c r="D31">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
@@ -2764,7 +2767,7 @@
         <v>68</v>
       </c>
       <c r="G31">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="H31" t="s">
         <v>61</v>
@@ -2773,7 +2776,7 @@
         <v>62</v>
       </c>
       <c r="J31">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="K31" t="s">
         <v>63</v>
@@ -2782,17 +2785,17 @@
         <v>64</v>
       </c>
       <c r="M31">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
       </c>
       <c r="O31">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2806,7 +2809,7 @@
         <v>66</v>
       </c>
       <c r="D32">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="E32" t="s">
         <v>69</v>
@@ -2815,7 +2818,7 @@
         <v>70</v>
       </c>
       <c r="G32">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H32" t="s">
         <v>61</v>
@@ -2824,7 +2827,7 @@
         <v>62</v>
       </c>
       <c r="J32">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="K32" t="s">
         <v>63</v>
@@ -2833,17 +2836,17 @@
         <v>64</v>
       </c>
       <c r="M32">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N32" t="s">
         <v>23</v>
       </c>
       <c r="O32">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P32">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2857,7 +2860,7 @@
         <v>66</v>
       </c>
       <c r="D33">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="E33" t="s">
         <v>57</v>
@@ -2866,7 +2869,7 @@
         <v>58</v>
       </c>
       <c r="G33">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H33" t="s">
         <v>61</v>
@@ -2875,7 +2878,7 @@
         <v>62</v>
       </c>
       <c r="J33">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="K33" t="s">
         <v>69</v>
@@ -2884,17 +2887,17 @@
         <v>70</v>
       </c>
       <c r="M33">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N33" t="s">
         <v>26</v>
       </c>
       <c r="O33">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P33">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2908,7 +2911,7 @@
         <v>66</v>
       </c>
       <c r="D34">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="E34" t="s">
         <v>69</v>
@@ -2917,7 +2920,7 @@
         <v>70</v>
       </c>
       <c r="G34">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H34" t="s">
         <v>67</v>
@@ -2926,7 +2929,7 @@
         <v>68</v>
       </c>
       <c r="J34">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="K34" t="s">
         <v>63</v>
@@ -2935,17 +2938,17 @@
         <v>64</v>
       </c>
       <c r="M34">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N34" t="s">
         <v>29</v>
       </c>
       <c r="O34">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P34">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2959,7 +2962,7 @@
         <v>72</v>
       </c>
       <c r="D35">
-        <v>570</v>
+        <v>670</v>
       </c>
       <c r="E35" t="s">
         <v>69</v>
@@ -2968,7 +2971,7 @@
         <v>70</v>
       </c>
       <c r="G35">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H35" t="s">
         <v>67</v>
@@ -2977,7 +2980,7 @@
         <v>68</v>
       </c>
       <c r="J35">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="K35" t="s">
         <v>73</v>
@@ -2986,17 +2989,17 @@
         <v>74</v>
       </c>
       <c r="M35">
-        <v>570</v>
+        <v>670</v>
       </c>
       <c r="N35" t="s">
         <v>32</v>
       </c>
       <c r="O35">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3010,7 +3013,7 @@
         <v>76</v>
       </c>
       <c r="D36">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="E36" t="s">
         <v>69</v>
@@ -3019,7 +3022,7 @@
         <v>70</v>
       </c>
       <c r="G36">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H36" t="s">
         <v>67</v>
@@ -3028,7 +3031,7 @@
         <v>68</v>
       </c>
       <c r="J36">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="K36" t="s">
         <v>73</v>
@@ -3037,17 +3040,17 @@
         <v>74</v>
       </c>
       <c r="M36">
-        <v>570</v>
+        <v>670</v>
       </c>
       <c r="N36" t="s">
         <v>33</v>
       </c>
       <c r="O36">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3061,7 +3064,7 @@
         <v>76</v>
       </c>
       <c r="D37">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="E37" t="s">
         <v>69</v>
@@ -3070,7 +3073,7 @@
         <v>70</v>
       </c>
       <c r="G37">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H37" t="s">
         <v>77</v>
@@ -3079,7 +3082,7 @@
         <v>78</v>
       </c>
       <c r="J37">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="K37" t="s">
         <v>73</v>
@@ -3088,17 +3091,17 @@
         <v>74</v>
       </c>
       <c r="M37">
-        <v>570</v>
+        <v>670</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
       </c>
       <c r="O37">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P37">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3112,7 +3115,7 @@
         <v>80</v>
       </c>
       <c r="D38">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E38" t="s">
         <v>77</v>
@@ -3121,7 +3124,7 @@
         <v>78</v>
       </c>
       <c r="G38">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="H38" t="s">
         <v>75</v>
@@ -3130,7 +3133,7 @@
         <v>76</v>
       </c>
       <c r="J38">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="K38" t="s">
         <v>73</v>
@@ -3139,17 +3142,17 @@
         <v>74</v>
       </c>
       <c r="M38">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="N38" t="s">
         <v>23</v>
       </c>
       <c r="O38">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P38">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3163,7 +3166,7 @@
         <v>80</v>
       </c>
       <c r="D39">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E39" t="s">
         <v>77</v>
@@ -3172,7 +3175,7 @@
         <v>78</v>
       </c>
       <c r="G39">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="H39" t="s">
         <v>75</v>
@@ -3181,7 +3184,7 @@
         <v>76</v>
       </c>
       <c r="J39">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="K39" t="s">
         <v>71</v>
@@ -3190,17 +3193,17 @@
         <v>72</v>
       </c>
       <c r="M39">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="N39" t="s">
         <v>26</v>
       </c>
       <c r="O39">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P39">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3214,7 +3217,7 @@
         <v>80</v>
       </c>
       <c r="D40">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E40" t="s">
         <v>75</v>
@@ -3223,7 +3226,7 @@
         <v>76</v>
       </c>
       <c r="G40">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="H40" t="s">
         <v>73</v>
@@ -3232,7 +3235,7 @@
         <v>74</v>
       </c>
       <c r="J40">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="K40" t="s">
         <v>71</v>
@@ -3241,17 +3244,17 @@
         <v>72</v>
       </c>
       <c r="M40">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="N40" t="s">
         <v>29</v>
       </c>
       <c r="O40">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3265,7 +3268,7 @@
         <v>80</v>
       </c>
       <c r="D41">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E41" t="s">
         <v>73</v>
@@ -3274,7 +3277,7 @@
         <v>74</v>
       </c>
       <c r="G41">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="H41" t="s">
         <v>63</v>
@@ -3283,7 +3286,7 @@
         <v>64</v>
       </c>
       <c r="J41">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K41" t="s">
         <v>71</v>
@@ -3292,17 +3295,17 @@
         <v>72</v>
       </c>
       <c r="M41">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="N41" t="s">
         <v>32</v>
       </c>
       <c r="O41">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P41">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3316,7 +3319,7 @@
         <v>16</v>
       </c>
       <c r="D42">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="E42" t="s">
         <v>17</v>
@@ -3325,7 +3328,7 @@
         <v>18</v>
       </c>
       <c r="G42">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="H42" t="s">
         <v>19</v>
@@ -3334,7 +3337,7 @@
         <v>20</v>
       </c>
       <c r="J42">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K42" t="s">
         <v>21</v>
@@ -3343,17 +3346,17 @@
         <v>22</v>
       </c>
       <c r="M42">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="N42" t="s">
         <v>33</v>
       </c>
       <c r="O42">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P42">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3367,7 +3370,7 @@
         <v>25</v>
       </c>
       <c r="D43">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="E43" t="s">
         <v>17</v>
@@ -3376,7 +3379,7 @@
         <v>18</v>
       </c>
       <c r="G43">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="H43" t="s">
         <v>19</v>
@@ -3385,7 +3388,7 @@
         <v>20</v>
       </c>
       <c r="J43">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -3394,20 +3397,26 @@
         <v>22</v>
       </c>
       <c r="M43">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
       </c>
       <c r="O43">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P43">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D2:D43"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
